--- a/Graphs/ar6_シフト解析.xlsx
+++ b/Graphs/ar6_シフト解析.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,11 +20,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Bn=175</t>
+    <t>x</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x</t>
+    <t>Bn=152</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -135,7 +135,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -3069,7 +3069,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -4541,1444 +4541,1444 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="481"/>
                 <c:pt idx="0">
-                  <c:v>477.1</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>439.4</c:v>
+                  <c:v>416.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>399.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>405.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>369.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>395.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>451.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>588.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>588.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>674.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>602.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>668.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>624.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>690.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>687.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>593.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>576.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>511.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>463.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>524.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>444.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>404.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>476.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>435.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>520.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>515.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>597.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>532.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>598.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>632.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>694.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>657.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>633.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>637.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>630.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>643.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>591.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>566.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>545.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>604.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>548.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>530.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>439.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>529.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>551.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>472.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>544.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>518.4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>591.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>629.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>712.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>646.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>816.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>792.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>803.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>882.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>844.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>798.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>772.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>746.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>780.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>612.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>559.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>628.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>599.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>593.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>548.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>488.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>519.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>514.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>526.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>594.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>539.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>476.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>550.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>495.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>550.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>577.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>578.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>615.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>606.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>628.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>589.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>608.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>579.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>621.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>578.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>615.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>562.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>661.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>631.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>562.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>563.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>488.1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>544.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>520.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>528.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>492.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>537.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>451.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>496.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>484.2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>476.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>503.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>480.4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>466.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>438.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>538.6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>448.1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>548.4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>534.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>544.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>581.9</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>625.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>696</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>710.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>640.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>673.1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>676.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>734.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>656.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>689.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>649.1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>680.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>646.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>626.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>675.2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>624.9</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>628.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>633.4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>549.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>634.6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>563.9</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>496.7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>523.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>498.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>461.6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>498.4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>415.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>517.6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>475.2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>410.2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>441.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>456.9</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>385.3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>387.6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>329.2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>419.1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>334.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>343.3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>364.8</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>411.4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>356.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>331.4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>286.3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>264.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>276.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>281.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>283.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>289.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>304.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>335.6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>325.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>277.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>274.2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>332.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>260.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>277.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>290.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>312.7</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>258.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>263.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>262.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>291.3</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>301.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>241.1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>312.3</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>344.7</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>312.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>351.1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>352.2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>350.6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>304.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>346.9</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>369.1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>366.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>436.6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>436.9</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>426.3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>486.5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>510.6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>616.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>541.9</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>610.4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>690.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>809.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>836.3</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>950.5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1011.8</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1048.3</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1151.3</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1226.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1381.9</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1471.5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1421.6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1485.8</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1518.5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1492.6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1516.1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1373.6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1230.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1143.8</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1135.7</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>916.7</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>832.9</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>734.7</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>713.4</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>679.3</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>692.2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>658.6</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>568.9</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>465.4</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>404.9</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>453.2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>442.6</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>358.2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>358.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>386.8</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>368.5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>350.2</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>397.3</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>332.6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>308.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>270.8</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>260.8</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>306.7</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>312.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>357.5</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>321.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>293.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>260.7</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>280.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>254.3</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>317.5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>372.6</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>260.5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275.7</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>296.3</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>305.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>295.7</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>295.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>254.5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>290.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>295.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>329.4</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>307.2</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>313.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>319.2</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>309.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>337.1</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>316.8</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>301.7</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>332.4</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>312.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>278.7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>345.7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>322.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>355.5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>346.5</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>362.4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>358.3</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>339.1</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>389.9</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>405.3</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>372.1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>356.7</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>433.1</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>442.9</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>444.9</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>432.4</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>438.8</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>412.2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>525.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>496.1</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>488.6</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>556.6</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>628.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>620.1</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>631.9</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>636.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>599.5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>566.9</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>509.8</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>467.4</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>427.1</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>417.7</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>436.6</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>390.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>452.4</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>449.7</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>410.1</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>373.3</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>460.6</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>428.9</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>409.9</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>409.1</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>384.5</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>358.6</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348.8</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>390.9</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>377.7</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>362.2</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>397.2</c:v>
+                </c:pt>
+                <c:pt idx="354">
                   <c:v>403.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>425.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>334.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>301.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>328.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>377.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>401.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>452.4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>430.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>463.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>469.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>543.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>543.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>501.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>503.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>503.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>443.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>403.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>435.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>436.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>347.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>377.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>335.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>399.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>440.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>425.6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>457.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>452.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>438.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>503.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>457.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>506.1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>502.8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>506.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>492.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>533.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>475.3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>469.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>420.4</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>429.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>399.1</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>416.3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>398.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>412.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>320.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>335.3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>389.1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>414.4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>496.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>479.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>494.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>505.3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>502</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>519.6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>581</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>558.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>572</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>518.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>495</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>440.9</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>416.1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>399.8</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>398.1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>349.1</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>343.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="355">
+                  <c:v>433.4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>506.2</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>483.7</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>439.2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>500.1</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>482.7</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>534.9</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>607.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>537.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>549.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>509.1</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>543.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>592.4</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>556.4</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>619.6</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>593.4</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>553.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>511.5</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>467.4</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>427.3</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>446.4</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>462.6</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>342.2</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>338.6</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>392.4</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>331.2</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>405.9</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>365.2</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>354.9</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>376.5</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>351.9</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>401.5</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>397.7</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>429.1</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>387.2</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>389.6</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>379.6</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>447.4</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>405.6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>453.7</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>426.9</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>476.7</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>539.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>520.6</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>501.2</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>555.1</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>434.2</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>518.4</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>551.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>448.6</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>508.6</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>460.9</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>443.3</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>405.1</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>376.1</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>377.2</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>428.2</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>392.4</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>384.3</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>419.9</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>421.6</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>399.5</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>490.8</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>525.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>475.9</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>520.6</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>530.1</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>405.5</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>497.9</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>409.6</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>507.4</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>442.2</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>365.6</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>338.9</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>338.6</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>288.7</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>303.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>304.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>328.2</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>360.4</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>356.6</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>400.7</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>373.3</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>384.1</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>379.4</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>413.8</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>381.9</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>390.5</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>345.3</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>388.5</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>343.3</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>349.9</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>348.1</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>356.9</c:v>
+                </c:pt>
+                <c:pt idx="457">
                   <c:v>332.7</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="458">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>324.8</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>338.3</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>344.6</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>365.5</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>372.5</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>392.9</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>407.3</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="468">
                   <c:v>366.7</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>357.2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>351.7</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>332.9</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>332.6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>334.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>331.2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>370.3</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>349.5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>408.7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>360.2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>469.8</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>439.3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>444.3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>546.6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>548.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>583</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>516</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>512.4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>522.6</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>451</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>453.6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>470.9</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>458.8</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>524.9</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>471.6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>503.4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>423.4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>382.4</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>387.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>408.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>385.4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>372.8</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>344.8</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>354.6</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>349.4</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>340.8</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>274.8</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>292.3</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>313.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>319.2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>283.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>284.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>284.8</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>288.5</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>265.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>317.3</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>262.2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>290.8</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>378.2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>369.2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>350.4</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>366.7</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>413.9</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>475.4</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>482.1</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>467.4</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>491.9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>623.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>585</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>598</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>585.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>617.4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>587.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>627</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>495.3</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>532.4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>479.4</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>517.9</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>506.8</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>451.3</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>421.3</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>403.4</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>380.9</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>320.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>321.2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>317.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>363.3</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>338.1</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>329.6</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>276.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>259.7</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>258.3</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>233.6</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>254.1</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>249.2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>195.3</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>209.7</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>192.8</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>160.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>163.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>200.2</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>189.1</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>162.5</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>180.8</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>155.5</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>186.2</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>153.9</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>162.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>147.1</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>135.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>125.2</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>127.7</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>131.5</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>138.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>139.6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>174.4</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>149.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>154.6</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>139.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>121.9</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>133.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>168.5</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>148.5</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>138.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>164.4</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>182.2</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>180.6</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>171.4</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>194.3</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>211.7</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>184.2</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>213.2</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>234.8</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>241.6</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>244.2</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>250.6</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>247.2</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>327.2</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>356.5</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>387.4</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>402.3</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>462.5</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>519</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>668.2</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>751.5</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>854.6</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>947.7</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1097.2</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1245.5999999999999</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1261.8</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1303.0999999999999</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>1331.9</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1428.4</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1411.4</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1423.3</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>1332.8</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>1291.5</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>1174.5</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>1067.4000000000001</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>954</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>840.7</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>801.3</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>723.4</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>652.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>599.4</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>521.6</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>499.1</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>482.8</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>427.6</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>374.4</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>341.2</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>320.7</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>275.8</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>260.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>266.2</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>269.7</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>240.4</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>200.8</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>232.9</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>213.5</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>169.2</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>178.1</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>169.5</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>154.5</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>122.6</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>125.6</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>149.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>166.9</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>134.1</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>136.1</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>145.4</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>107.9</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>140.5</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>130.4</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>172.6</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>163.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>112.5</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>111.5</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>121.2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>137.6</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>143.9</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>153.5</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>134.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>127.1</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>157.5</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>166.6</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>163.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>194.5</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>153.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>159.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>152.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>200.4</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>154.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>170.2</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>210.4</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>179.4</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>192.4</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>183.1</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>219.3</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>231.7</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>205.1</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>227.6</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>275.8</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>287.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>260.5</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>263.3</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>321.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>352.7</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>376.2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>342.2</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>380.4</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>407.2</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>404.9</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>412.7</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>451.4</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>502.8</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>497.6</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>493.7</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>535.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>509.5</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>460.6</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>459.9</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>435.3</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>429.6</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>359.1</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>320.8</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>323.7</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>291.2</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>271.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>273.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>254.7</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>286.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>311.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>275.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>247.7</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>259.3</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>297.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>337.4</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>344.7</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>327.9</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>270.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>263.5</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>274.7</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>321.3</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>339.5</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>350.2</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>327.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>324.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>343.7</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>370.8</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>413.8</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>418.6</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>408.5</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>358.9</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>431.4</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>433.3</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>372.7</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>350.5</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>350.6</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>322.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>285.5</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>262.5</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>270.2</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>264.3</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>272.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>246.9</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>302.2</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>280.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>316.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>323.3</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>300.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>312.8</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>332.8</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>351.3</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>333.3</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>343.4</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>384.2</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>390.1</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>402.6</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>360.2</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>391.6</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>380.2</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>437</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>461.6</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>461.8</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>464.5</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>363.3</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>355.2</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>360.7</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>336.5</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>329.7</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>301.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>260.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>245.6</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>202.4</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>240.2</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>243.7</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>233.5</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>235.9</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>213.3</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>225.4</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>251.5</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>243.4</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>241.3</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>259.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>294.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>313.7</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>260.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>227.8</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>289.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>221.4</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>229.1</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>226.7</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>199.2</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>198.4</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>212.8</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>189.9</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>164.8</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>157.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>143.6</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>185.8</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>164.8</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>206.6</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>213.6</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>253.6</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>269.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>263.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>217.7</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>200.7</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>178.6</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>181.3</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>207.8</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>164.3</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>160.1</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>164.1</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>148.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>116.2</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>151.5</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>164.2</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>165.1</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>137.1</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>135.9</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>167.3</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>195.6</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>156.1</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>120.7</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>140.9</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>142.6</c:v>
-                </c:pt>
                 <c:pt idx="469">
-                  <c:v>128.9</c:v>
+                  <c:v>331.3</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>106</c:v>
+                  <c:v>321.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>112.4</c:v>
+                  <c:v>312.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>117.1</c:v>
+                  <c:v>336.9</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>97.4</c:v>
+                  <c:v>318.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>106.3</c:v>
+                  <c:v>345.4</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>133.9</c:v>
+                  <c:v>373.3</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>154.80000000000001</c:v>
+                  <c:v>354.8</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>159.69999999999999</c:v>
+                  <c:v>361.4</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>116</c:v>
+                  <c:v>262.8</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>139.30000000000001</c:v>
+                  <c:v>316.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="480">
                   <c:v>0</c:v>
@@ -5996,11 +5996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="722266848"/>
-        <c:axId val="722267632"/>
+        <c:axId val="1317520992"/>
+        <c:axId val="1317522560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="722266848"/>
+        <c:axId val="1317520992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="480"/>
@@ -6114,12 +6114,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722267632"/>
+        <c:crossAx val="1317522560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="722267632"/>
+        <c:axId val="1317522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6236,7 +6236,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722266848"/>
+        <c:crossAx val="1317520992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6882,15 +6882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>604345</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>13138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>216447</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7203,21 +7203,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -7228,7 +7228,7 @@
         <v>232.2</v>
       </c>
       <c r="C2" s="1">
-        <v>477.1</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -7239,7 +7239,7 @@
         <v>238</v>
       </c>
       <c r="C3" s="1">
-        <v>439.4</v>
+        <v>416.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -7250,7 +7250,7 @@
         <v>206.2</v>
       </c>
       <c r="C4" s="1">
-        <v>403.7</v>
+        <v>399.9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -7261,7 +7261,7 @@
         <v>280.3</v>
       </c>
       <c r="C5" s="1">
-        <v>425.5</v>
+        <v>405.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -7272,7 +7272,7 @@
         <v>293.2</v>
       </c>
       <c r="C6" s="1">
-        <v>334.7</v>
+        <v>369.3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -7283,7 +7283,7 @@
         <v>308.3</v>
       </c>
       <c r="C7" s="1">
-        <v>301.7</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -7294,7 +7294,7 @@
         <v>341</v>
       </c>
       <c r="C8" s="1">
-        <v>328.3</v>
+        <v>395.2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -7305,7 +7305,7 @@
         <v>326.2</v>
       </c>
       <c r="C9" s="1">
-        <v>377.4</v>
+        <v>451.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -7316,7 +7316,7 @@
         <v>295.39999999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>401.8</v>
+        <v>588.4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -7327,7 +7327,7 @@
         <v>378.1</v>
       </c>
       <c r="C11" s="1">
-        <v>493</v>
+        <v>588.6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -7338,7 +7338,7 @@
         <v>405.3</v>
       </c>
       <c r="C12" s="1">
-        <v>452.4</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -7349,7 +7349,7 @@
         <v>410.8</v>
       </c>
       <c r="C13" s="1">
-        <v>430.3</v>
+        <v>674.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -7360,7 +7360,7 @@
         <v>429.2</v>
       </c>
       <c r="C14" s="1">
-        <v>445</v>
+        <v>602.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -7371,7 +7371,7 @@
         <v>491.2</v>
       </c>
       <c r="C15" s="1">
-        <v>463.2</v>
+        <v>668.2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -7382,7 +7382,7 @@
         <v>511.5</v>
       </c>
       <c r="C16" s="1">
-        <v>469.8</v>
+        <v>624.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -7393,7 +7393,7 @@
         <v>511.6</v>
       </c>
       <c r="C17" s="1">
-        <v>543.9</v>
+        <v>690.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -7404,7 +7404,7 @@
         <v>433.3</v>
       </c>
       <c r="C18" s="1">
-        <v>543.9</v>
+        <v>687.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -7415,7 +7415,7 @@
         <v>417.3</v>
       </c>
       <c r="C19" s="1">
-        <v>501.1</v>
+        <v>593.79999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -7426,7 +7426,7 @@
         <v>403.2</v>
       </c>
       <c r="C20" s="1">
-        <v>503.5</v>
+        <v>576.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -7437,7 +7437,7 @@
         <v>367.1</v>
       </c>
       <c r="C21" s="1">
-        <v>503.2</v>
+        <v>511.2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -7448,7 +7448,7 @@
         <v>357.1</v>
       </c>
       <c r="C22" s="1">
-        <v>443.4</v>
+        <v>463.5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -7459,7 +7459,7 @@
         <v>360.3</v>
       </c>
       <c r="C23" s="1">
-        <v>403.3</v>
+        <v>524.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -7470,7 +7470,7 @@
         <v>360.5</v>
       </c>
       <c r="C24" s="1">
-        <v>435.6</v>
+        <v>444.1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -7481,7 +7481,7 @@
         <v>364.9</v>
       </c>
       <c r="C25" s="1">
-        <v>436.5</v>
+        <v>460.3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -7492,7 +7492,7 @@
         <v>317.10000000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>347.5</v>
+        <v>404.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -7503,7 +7503,7 @@
         <v>365.5</v>
       </c>
       <c r="C27" s="1">
-        <v>377.3</v>
+        <v>476.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -7514,7 +7514,7 @@
         <v>339.8</v>
       </c>
       <c r="C28" s="1">
-        <v>335.9</v>
+        <v>435.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -7525,7 +7525,7 @@
         <v>337</v>
       </c>
       <c r="C29" s="1">
-        <v>399.7</v>
+        <v>520.9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -7536,7 +7536,7 @@
         <v>297.7</v>
       </c>
       <c r="C30" s="1">
-        <v>440.1</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -7547,7 +7547,7 @@
         <v>343.6</v>
       </c>
       <c r="C31" s="1">
-        <v>425.6</v>
+        <v>515.70000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -7558,7 +7558,7 @@
         <v>422.8</v>
       </c>
       <c r="C32" s="1">
-        <v>457.5</v>
+        <v>597.20000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -7569,7 +7569,7 @@
         <v>437.6</v>
       </c>
       <c r="C33" s="1">
-        <v>452.6</v>
+        <v>532.4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -7580,7 +7580,7 @@
         <v>419.2</v>
       </c>
       <c r="C34" s="1">
-        <v>438.9</v>
+        <v>598.79999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -7591,7 +7591,7 @@
         <v>433.5</v>
       </c>
       <c r="C35" s="1">
-        <v>503.3</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -7602,7 +7602,7 @@
         <v>409.1</v>
       </c>
       <c r="C36" s="1">
-        <v>457.9</v>
+        <v>632.20000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -7613,7 +7613,7 @@
         <v>417.9</v>
       </c>
       <c r="C37" s="1">
-        <v>506.1</v>
+        <v>694.2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -7624,7 +7624,7 @@
         <v>408.3</v>
       </c>
       <c r="C38" s="1">
-        <v>502.8</v>
+        <v>657.8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -7635,7 +7635,7 @@
         <v>429.6</v>
       </c>
       <c r="C39" s="1">
-        <v>506.1</v>
+        <v>633.29999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -7646,7 +7646,7 @@
         <v>383.4</v>
       </c>
       <c r="C40" s="1">
-        <v>532</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -7657,7 +7657,7 @@
         <v>367.2</v>
       </c>
       <c r="C41" s="1">
-        <v>492.4</v>
+        <v>630.29999999999995</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -7668,7 +7668,7 @@
         <v>311.3</v>
       </c>
       <c r="C42" s="1">
-        <v>533.70000000000005</v>
+        <v>643.1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -7679,7 +7679,7 @@
         <v>317.39999999999998</v>
       </c>
       <c r="C43" s="1">
-        <v>475.3</v>
+        <v>591.29999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -7690,7 +7690,7 @@
         <v>328</v>
       </c>
       <c r="C44" s="1">
-        <v>469.1</v>
+        <v>566.29999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -7701,7 +7701,7 @@
         <v>363.8</v>
       </c>
       <c r="C45" s="1">
-        <v>420.4</v>
+        <v>545.1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -7712,7 +7712,7 @@
         <v>347.6</v>
       </c>
       <c r="C46" s="1">
-        <v>429.5</v>
+        <v>604.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -7723,7 +7723,7 @@
         <v>349.8</v>
       </c>
       <c r="C47" s="1">
-        <v>399.1</v>
+        <v>548.1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -7734,7 +7734,7 @@
         <v>370.3</v>
       </c>
       <c r="C48" s="1">
-        <v>416.3</v>
+        <v>530.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -7745,7 +7745,7 @@
         <v>324.39999999999998</v>
       </c>
       <c r="C49" s="1">
-        <v>357</v>
+        <v>439.9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -7756,7 +7756,7 @@
         <v>326.89999999999998</v>
       </c>
       <c r="C50" s="1">
-        <v>398.8</v>
+        <v>517.5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -7767,7 +7767,7 @@
         <v>363.9</v>
       </c>
       <c r="C51" s="1">
-        <v>412.2</v>
+        <v>529.9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -7778,7 +7778,7 @@
         <v>378.9</v>
       </c>
       <c r="C52" s="1">
-        <v>375</v>
+        <v>551.4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -7789,7 +7789,7 @@
         <v>383.6</v>
       </c>
       <c r="C53" s="1">
-        <v>320.10000000000002</v>
+        <v>472.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -7800,7 +7800,7 @@
         <v>431.4</v>
       </c>
       <c r="C54" s="1">
-        <v>335.3</v>
+        <v>544.9</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -7811,7 +7811,7 @@
         <v>478</v>
       </c>
       <c r="C55" s="1">
-        <v>389.1</v>
+        <v>518.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -7822,7 +7822,7 @@
         <v>492.8</v>
       </c>
       <c r="C56" s="1">
-        <v>396</v>
+        <v>591.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -7833,7 +7833,7 @@
         <v>525.6</v>
       </c>
       <c r="C57" s="1">
-        <v>414.4</v>
+        <v>629.4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -7844,7 +7844,7 @@
         <v>546.6</v>
       </c>
       <c r="C58" s="1">
-        <v>496.1</v>
+        <v>712.4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -7855,7 +7855,7 @@
         <v>499.8</v>
       </c>
       <c r="C59" s="1">
-        <v>479.5</v>
+        <v>646.20000000000005</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -7866,7 +7866,7 @@
         <v>546.1</v>
       </c>
       <c r="C60" s="1">
-        <v>494.4</v>
+        <v>737</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -7877,7 +7877,7 @@
         <v>599.5</v>
       </c>
       <c r="C61" s="1">
-        <v>505.3</v>
+        <v>816.8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -7888,7 +7888,7 @@
         <v>535</v>
       </c>
       <c r="C62" s="1">
-        <v>502</v>
+        <v>792.9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -7899,7 +7899,7 @@
         <v>503.5</v>
       </c>
       <c r="C63" s="1">
-        <v>519.6</v>
+        <v>803.1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -7910,7 +7910,7 @@
         <v>519.79999999999995</v>
       </c>
       <c r="C64" s="1">
-        <v>581</v>
+        <v>882.8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -7921,7 +7921,7 @@
         <v>566.79999999999995</v>
       </c>
       <c r="C65" s="1">
-        <v>558.70000000000005</v>
+        <v>844.6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -7932,7 +7932,7 @@
         <v>530.1</v>
       </c>
       <c r="C66" s="1">
-        <v>572</v>
+        <v>798.3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -7943,7 +7943,7 @@
         <v>489.5</v>
       </c>
       <c r="C67" s="1">
-        <v>518.5</v>
+        <v>772.8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -7954,7 +7954,7 @@
         <v>463.7</v>
       </c>
       <c r="C68" s="1">
-        <v>495</v>
+        <v>746.6</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -7965,7 +7965,7 @@
         <v>479.7</v>
       </c>
       <c r="C69" s="1">
-        <v>440.9</v>
+        <v>780.7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -7976,7 +7976,7 @@
         <v>438.5</v>
       </c>
       <c r="C70" s="1">
-        <v>416.1</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -7987,7 +7987,7 @@
         <v>452.9</v>
       </c>
       <c r="C71" s="1">
-        <v>399.8</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -7998,7 +7998,7 @@
         <v>415.9</v>
       </c>
       <c r="C72" s="1">
-        <v>398.1</v>
+        <v>612.1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -8009,7 +8009,7 @@
         <v>448.4</v>
       </c>
       <c r="C73" s="1">
-        <v>349.1</v>
+        <v>559.1</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -8020,7 +8020,7 @@
         <v>441.9</v>
       </c>
       <c r="C74" s="1">
-        <v>343.5</v>
+        <v>628.20000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -8031,7 +8031,7 @@
         <v>332.4</v>
       </c>
       <c r="C75" s="1">
-        <v>332.7</v>
+        <v>599.20000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -8042,7 +8042,7 @@
         <v>345.7</v>
       </c>
       <c r="C76" s="1">
-        <v>366.7</v>
+        <v>593.29999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -8053,7 +8053,7 @@
         <v>340.9</v>
       </c>
       <c r="C77" s="1">
-        <v>357.2</v>
+        <v>548.20000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -8064,7 +8064,7 @@
         <v>357.6</v>
       </c>
       <c r="C78" s="1">
-        <v>351.7</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -8075,7 +8075,7 @@
         <v>334.6</v>
       </c>
       <c r="C79" s="1">
-        <v>332.9</v>
+        <v>519.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -8086,7 +8086,7 @@
         <v>355.5</v>
       </c>
       <c r="C80" s="1">
-        <v>332.6</v>
+        <v>514.4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -8097,7 +8097,7 @@
         <v>355.7</v>
       </c>
       <c r="C81" s="1">
-        <v>334.4</v>
+        <v>526.1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -8108,7 +8108,7 @@
         <v>379.2</v>
       </c>
       <c r="C82" s="1">
-        <v>331.2</v>
+        <v>594.20000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -8119,7 +8119,7 @@
         <v>401.8</v>
       </c>
       <c r="C83" s="1">
-        <v>370.3</v>
+        <v>539.70000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -8130,7 +8130,7 @@
         <v>401.9</v>
       </c>
       <c r="C84" s="1">
-        <v>349.5</v>
+        <v>476.3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -8141,7 +8141,7 @@
         <v>371.5</v>
       </c>
       <c r="C85" s="1">
-        <v>408.7</v>
+        <v>550.29999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -8152,7 +8152,7 @@
         <v>393.1</v>
       </c>
       <c r="C86" s="1">
-        <v>360.2</v>
+        <v>495.6</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -8163,7 +8163,7 @@
         <v>431.8</v>
       </c>
       <c r="C87" s="1">
-        <v>469.8</v>
+        <v>550.79999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -8174,7 +8174,7 @@
         <v>444</v>
       </c>
       <c r="C88" s="1">
-        <v>439.3</v>
+        <v>577.29999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -8185,7 +8185,7 @@
         <v>464.8</v>
       </c>
       <c r="C89" s="1">
-        <v>444.3</v>
+        <v>578.5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -8196,7 +8196,7 @@
         <v>496.6</v>
       </c>
       <c r="C90" s="1">
-        <v>482</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -8207,7 +8207,7 @@
         <v>510.1</v>
       </c>
       <c r="C91" s="1">
-        <v>546.6</v>
+        <v>615.5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -8218,7 +8218,7 @@
         <v>443.5</v>
       </c>
       <c r="C92" s="1">
-        <v>548.79999999999995</v>
+        <v>606.20000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -8229,7 +8229,7 @@
         <v>486.4</v>
       </c>
       <c r="C93" s="1">
-        <v>583</v>
+        <v>638</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -8240,7 +8240,7 @@
         <v>553.79999999999995</v>
       </c>
       <c r="C94" s="1">
-        <v>516</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
@@ -8251,7 +8251,7 @@
         <v>541.4</v>
       </c>
       <c r="C95" s="1">
-        <v>512.4</v>
+        <v>628.70000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
@@ -8262,7 +8262,7 @@
         <v>544.5</v>
       </c>
       <c r="C96" s="1">
-        <v>522.6</v>
+        <v>589.79999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
@@ -8273,7 +8273,7 @@
         <v>557</v>
       </c>
       <c r="C97" s="1">
-        <v>451</v>
+        <v>608.29999999999995</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
@@ -8284,7 +8284,7 @@
         <v>528.20000000000005</v>
       </c>
       <c r="C98" s="1">
-        <v>453.6</v>
+        <v>579.79999999999995</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
@@ -8295,7 +8295,7 @@
         <v>548</v>
       </c>
       <c r="C99" s="1">
-        <v>470.9</v>
+        <v>621.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
@@ -8306,7 +8306,7 @@
         <v>446.9</v>
       </c>
       <c r="C100" s="1">
-        <v>458.8</v>
+        <v>578.20000000000005</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
@@ -8317,7 +8317,7 @@
         <v>471.8</v>
       </c>
       <c r="C101" s="1">
-        <v>524.9</v>
+        <v>615.29999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.15">
@@ -8328,7 +8328,7 @@
         <v>375.3</v>
       </c>
       <c r="C102" s="1">
-        <v>471.6</v>
+        <v>562.1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
@@ -8339,7 +8339,7 @@
         <v>424.1</v>
       </c>
       <c r="C103" s="1">
-        <v>503.4</v>
+        <v>661.5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
@@ -8350,7 +8350,7 @@
         <v>428.2</v>
       </c>
       <c r="C104" s="1">
-        <v>423.4</v>
+        <v>631.1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
@@ -8361,7 +8361,7 @@
         <v>426.3</v>
       </c>
       <c r="C105" s="1">
-        <v>382.4</v>
+        <v>562.20000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
@@ -8372,7 +8372,7 @@
         <v>411.8</v>
       </c>
       <c r="C106" s="1">
-        <v>387.4</v>
+        <v>563.70000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
@@ -8383,7 +8383,7 @@
         <v>407.4</v>
       </c>
       <c r="C107" s="1">
-        <v>408.5</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
@@ -8394,7 +8394,7 @@
         <v>392</v>
       </c>
       <c r="C108" s="1">
-        <v>385.4</v>
+        <v>488.1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
@@ -8405,7 +8405,7 @@
         <v>373.7</v>
       </c>
       <c r="C109" s="1">
-        <v>372.8</v>
+        <v>544.79999999999995</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
@@ -8416,7 +8416,7 @@
         <v>322.3</v>
       </c>
       <c r="C110" s="1">
-        <v>344.8</v>
+        <v>520.4</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
@@ -8427,7 +8427,7 @@
         <v>310.39999999999998</v>
       </c>
       <c r="C111" s="1">
-        <v>339</v>
+        <v>528.20000000000005</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
@@ -8438,7 +8438,7 @@
         <v>376.6</v>
       </c>
       <c r="C112" s="1">
-        <v>354.6</v>
+        <v>530.1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
@@ -8449,7 +8449,7 @@
         <v>350.5</v>
       </c>
       <c r="C113" s="1">
-        <v>349.4</v>
+        <v>492.1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
@@ -8460,7 +8460,7 @@
         <v>390.6</v>
       </c>
       <c r="C114" s="1">
-        <v>340.8</v>
+        <v>537.1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
@@ -8471,7 +8471,7 @@
         <v>386.2</v>
       </c>
       <c r="C115" s="1">
-        <v>274.8</v>
+        <v>451.3</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
@@ -8482,7 +8482,7 @@
         <v>355</v>
       </c>
       <c r="C116" s="1">
-        <v>292.3</v>
+        <v>496.4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
@@ -8493,7 +8493,7 @@
         <v>306.3</v>
       </c>
       <c r="C117" s="1">
-        <v>313.39999999999998</v>
+        <v>484.2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
@@ -8504,7 +8504,7 @@
         <v>294.8</v>
       </c>
       <c r="C118" s="1">
-        <v>319.2</v>
+        <v>476.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
@@ -8515,7 +8515,7 @@
         <v>328.5</v>
       </c>
       <c r="C119" s="1">
-        <v>283.60000000000002</v>
+        <v>503.7</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
@@ -8526,7 +8526,7 @@
         <v>250</v>
       </c>
       <c r="C120" s="1">
-        <v>284.60000000000002</v>
+        <v>480.4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.15">
@@ -8537,7 +8537,7 @@
         <v>283.39999999999998</v>
       </c>
       <c r="C121" s="1">
-        <v>284.8</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
@@ -8548,7 +8548,7 @@
         <v>346.7</v>
       </c>
       <c r="C122" s="1">
-        <v>288.5</v>
+        <v>466.2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
@@ -8559,7 +8559,7 @@
         <v>317</v>
       </c>
       <c r="C123" s="1">
-        <v>265.60000000000002</v>
+        <v>438.1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.15">
@@ -8570,7 +8570,7 @@
         <v>361.8</v>
       </c>
       <c r="C124" s="1">
-        <v>317.3</v>
+        <v>538.6</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.15">
@@ -8581,7 +8581,7 @@
         <v>294.5</v>
       </c>
       <c r="C125" s="1">
-        <v>262.2</v>
+        <v>448.1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
@@ -8592,7 +8592,7 @@
         <v>329.1</v>
       </c>
       <c r="C126" s="1">
-        <v>290.8</v>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
@@ -8603,7 +8603,7 @@
         <v>366.5</v>
       </c>
       <c r="C127" s="1">
-        <v>378.2</v>
+        <v>548.4</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
@@ -8614,7 +8614,7 @@
         <v>368.9</v>
       </c>
       <c r="C128" s="1">
-        <v>369.2</v>
+        <v>534.79999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
@@ -8625,7 +8625,7 @@
         <v>387.3</v>
       </c>
       <c r="C129" s="1">
-        <v>350.4</v>
+        <v>544.29999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
@@ -8636,7 +8636,7 @@
         <v>391.1</v>
       </c>
       <c r="C130" s="1">
-        <v>366.7</v>
+        <v>581.9</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
@@ -8647,7 +8647,7 @@
         <v>403.4</v>
       </c>
       <c r="C131" s="1">
-        <v>413.9</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
@@ -8658,7 +8658,7 @@
         <v>469.3</v>
       </c>
       <c r="C132" s="1">
-        <v>475.4</v>
+        <v>625.29999999999995</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
@@ -8669,7 +8669,7 @@
         <v>442.1</v>
       </c>
       <c r="C133" s="1">
-        <v>482.1</v>
+        <v>696</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.15">
@@ -8680,7 +8680,7 @@
         <v>459.2</v>
       </c>
       <c r="C134" s="1">
-        <v>467.4</v>
+        <v>710.2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.15">
@@ -8691,7 +8691,7 @@
         <v>421.5</v>
       </c>
       <c r="C135" s="1">
-        <v>491.9</v>
+        <v>640.29999999999995</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.15">
@@ -8702,7 +8702,7 @@
         <v>448.3</v>
       </c>
       <c r="C136" s="1">
-        <v>623.70000000000005</v>
+        <v>673.1</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.15">
@@ -8713,7 +8713,7 @@
         <v>466.6</v>
       </c>
       <c r="C137" s="1">
-        <v>585</v>
+        <v>676.5</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.15">
@@ -8724,7 +8724,7 @@
         <v>499.4</v>
       </c>
       <c r="C138" s="1">
-        <v>598</v>
+        <v>734.6</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.15">
@@ -8735,7 +8735,7 @@
         <v>557.9</v>
       </c>
       <c r="C139" s="1">
-        <v>585.5</v>
+        <v>656.8</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.15">
@@ -8746,7 +8746,7 @@
         <v>571.6</v>
       </c>
       <c r="C140" s="1">
-        <v>617.4</v>
+        <v>689.6</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.15">
@@ -8757,7 +8757,7 @@
         <v>464.7</v>
       </c>
       <c r="C141" s="1">
-        <v>587.70000000000005</v>
+        <v>649.1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.15">
@@ -8768,7 +8768,7 @@
         <v>489.5</v>
       </c>
       <c r="C142" s="1">
-        <v>627</v>
+        <v>680.2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.15">
@@ -8779,7 +8779,7 @@
         <v>467.3</v>
       </c>
       <c r="C143" s="1">
-        <v>560</v>
+        <v>646.20000000000005</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.15">
@@ -8790,7 +8790,7 @@
         <v>445.5</v>
       </c>
       <c r="C144" s="1">
-        <v>495.3</v>
+        <v>626.79999999999995</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.15">
@@ -8801,7 +8801,7 @@
         <v>462.7</v>
       </c>
       <c r="C145" s="1">
-        <v>532.4</v>
+        <v>675.2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.15">
@@ -8812,7 +8812,7 @@
         <v>410.2</v>
       </c>
       <c r="C146" s="1">
-        <v>479.4</v>
+        <v>624.9</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.15">
@@ -8823,7 +8823,7 @@
         <v>405.1</v>
       </c>
       <c r="C147" s="1">
-        <v>517.9</v>
+        <v>628.20000000000005</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.15">
@@ -8834,7 +8834,7 @@
         <v>383.5</v>
       </c>
       <c r="C148" s="1">
-        <v>506.8</v>
+        <v>633.4</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.15">
@@ -8845,7 +8845,7 @@
         <v>376.3</v>
       </c>
       <c r="C149" s="1">
-        <v>451.3</v>
+        <v>549.20000000000005</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.15">
@@ -8856,7 +8856,7 @@
         <v>391.9</v>
       </c>
       <c r="C150" s="1">
-        <v>421.3</v>
+        <v>634.6</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.15">
@@ -8867,7 +8867,7 @@
         <v>359.7</v>
       </c>
       <c r="C151" s="1">
-        <v>403.4</v>
+        <v>514</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.15">
@@ -8878,7 +8878,7 @@
         <v>403.3</v>
       </c>
       <c r="C152" s="1">
-        <v>380.9</v>
+        <v>563.9</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.15">
@@ -8889,7 +8889,7 @@
         <v>301.8</v>
       </c>
       <c r="C153" s="1">
-        <v>320.60000000000002</v>
+        <v>496.7</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.15">
@@ -8900,7 +8900,7 @@
         <v>329.7</v>
       </c>
       <c r="C154" s="1">
-        <v>321.2</v>
+        <v>523.70000000000005</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.15">
@@ -8911,7 +8911,7 @@
         <v>300.2</v>
       </c>
       <c r="C155" s="1">
-        <v>339</v>
+        <v>498.7</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.15">
@@ -8922,7 +8922,7 @@
         <v>299.8</v>
       </c>
       <c r="C156" s="1">
-        <v>317.60000000000002</v>
+        <v>461.6</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.15">
@@ -8933,7 +8933,7 @@
         <v>303.5</v>
       </c>
       <c r="C157" s="1">
-        <v>363.3</v>
+        <v>498.4</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.15">
@@ -8944,7 +8944,7 @@
         <v>289.7</v>
       </c>
       <c r="C158" s="1">
-        <v>338.1</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.15">
@@ -8955,7 +8955,7 @@
         <v>252.7</v>
       </c>
       <c r="C159" s="1">
-        <v>329.6</v>
+        <v>415.8</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.15">
@@ -8966,7 +8966,7 @@
         <v>255</v>
       </c>
       <c r="C160" s="1">
-        <v>306</v>
+        <v>517.6</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.15">
@@ -8977,7 +8977,7 @@
         <v>223.5</v>
       </c>
       <c r="C161" s="1">
-        <v>276.89999999999998</v>
+        <v>475.2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.15">
@@ -8988,7 +8988,7 @@
         <v>259.60000000000002</v>
       </c>
       <c r="C162" s="1">
-        <v>259.7</v>
+        <v>410.2</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.15">
@@ -8999,7 +8999,7 @@
         <v>245.2</v>
       </c>
       <c r="C163" s="1">
-        <v>258.3</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.15">
@@ -9010,7 +9010,7 @@
         <v>245.7</v>
       </c>
       <c r="C164" s="1">
-        <v>233.6</v>
+        <v>441.2</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.15">
@@ -9021,7 +9021,7 @@
         <v>248</v>
       </c>
       <c r="C165" s="1">
-        <v>254.1</v>
+        <v>456.9</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.15">
@@ -9032,7 +9032,7 @@
         <v>257</v>
       </c>
       <c r="C166" s="1">
-        <v>249.2</v>
+        <v>440.5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.15">
@@ -9043,7 +9043,7 @@
         <v>198.4</v>
       </c>
       <c r="C167" s="1">
-        <v>195.3</v>
+        <v>385.3</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.15">
@@ -9054,7 +9054,7 @@
         <v>232.9</v>
       </c>
       <c r="C168" s="1">
-        <v>242</v>
+        <v>418</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.15">
@@ -9065,7 +9065,7 @@
         <v>226.1</v>
       </c>
       <c r="C169" s="1">
-        <v>223.2</v>
+        <v>387.6</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.15">
@@ -9076,7 +9076,7 @@
         <v>196.4</v>
       </c>
       <c r="C170" s="1">
-        <v>209.7</v>
+        <v>329.2</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.15">
@@ -9087,7 +9087,7 @@
         <v>208.2</v>
       </c>
       <c r="C171" s="1">
-        <v>192.8</v>
+        <v>419.1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.15">
@@ -9098,7 +9098,7 @@
         <v>182.4</v>
       </c>
       <c r="C172" s="1">
-        <v>159</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.15">
@@ -9109,7 +9109,7 @@
         <v>179.8</v>
       </c>
       <c r="C173" s="1">
-        <v>160.19999999999999</v>
+        <v>343.3</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.15">
@@ -9120,7 +9120,7 @@
         <v>195.6</v>
       </c>
       <c r="C174" s="1">
-        <v>163.19999999999999</v>
+        <v>364.8</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.15">
@@ -9131,7 +9131,7 @@
         <v>210.2</v>
       </c>
       <c r="C175" s="1">
-        <v>200.2</v>
+        <v>411.4</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.15">
@@ -9142,7 +9142,7 @@
         <v>183.7</v>
       </c>
       <c r="C176" s="1">
-        <v>189.1</v>
+        <v>356.8</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.15">
@@ -9153,7 +9153,7 @@
         <v>175.6</v>
       </c>
       <c r="C177" s="1">
-        <v>162.5</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.15">
@@ -9164,7 +9164,7 @@
         <v>195.3</v>
       </c>
       <c r="C178" s="1">
-        <v>180.8</v>
+        <v>331.4</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.15">
@@ -9175,7 +9175,7 @@
         <v>138</v>
       </c>
       <c r="C179" s="1">
-        <v>155.5</v>
+        <v>286.3</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.15">
@@ -9186,7 +9186,7 @@
         <v>153.80000000000001</v>
       </c>
       <c r="C180" s="1">
-        <v>186.2</v>
+        <v>330.9</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.15">
@@ -9197,7 +9197,7 @@
         <v>164.4</v>
       </c>
       <c r="C181" s="1">
-        <v>167</v>
+        <v>264.89999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.15">
@@ -9208,7 +9208,7 @@
         <v>144.4</v>
       </c>
       <c r="C182" s="1">
-        <v>153.9</v>
+        <v>276.60000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.15">
@@ -9219,7 +9219,7 @@
         <v>152.19999999999999</v>
       </c>
       <c r="C183" s="1">
-        <v>162.30000000000001</v>
+        <v>281.60000000000002</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.15">
@@ -9230,7 +9230,7 @@
         <v>146.6</v>
       </c>
       <c r="C184" s="1">
-        <v>147.1</v>
+        <v>283.89999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.15">
@@ -9241,7 +9241,7 @@
         <v>127.6</v>
       </c>
       <c r="C185" s="1">
-        <v>135.19999999999999</v>
+        <v>289.10000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.15">
@@ -9252,7 +9252,7 @@
         <v>151.80000000000001</v>
       </c>
       <c r="C186" s="1">
-        <v>125.2</v>
+        <v>342</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.15">
@@ -9263,7 +9263,7 @@
         <v>138.4</v>
       </c>
       <c r="C187" s="1">
-        <v>127.7</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.15">
@@ -9274,7 +9274,7 @@
         <v>132.1</v>
       </c>
       <c r="C188" s="1">
-        <v>131.5</v>
+        <v>335.6</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.15">
@@ -9285,7 +9285,7 @@
         <v>119.4</v>
       </c>
       <c r="C189" s="1">
-        <v>135</v>
+        <v>325.2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.15">
@@ -9296,7 +9296,7 @@
         <v>132.4</v>
       </c>
       <c r="C190" s="1">
-        <v>138.80000000000001</v>
+        <v>277.39999999999998</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.15">
@@ -9307,7 +9307,7 @@
         <v>162</v>
       </c>
       <c r="C191" s="1">
-        <v>139.6</v>
+        <v>274.2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.15">
@@ -9318,7 +9318,7 @@
         <v>147</v>
       </c>
       <c r="C192" s="1">
-        <v>174.4</v>
+        <v>332.9</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.15">
@@ -9329,7 +9329,7 @@
         <v>123.8</v>
       </c>
       <c r="C193" s="1">
-        <v>145</v>
+        <v>260.39999999999998</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.15">
@@ -9340,7 +9340,7 @@
         <v>155.6</v>
       </c>
       <c r="C194" s="1">
-        <v>149.19999999999999</v>
+        <v>277.39999999999998</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.15">
@@ -9351,7 +9351,7 @@
         <v>166.6</v>
       </c>
       <c r="C195" s="1">
-        <v>154.6</v>
+        <v>290.5</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.15">
@@ -9362,7 +9362,7 @@
         <v>152.1</v>
       </c>
       <c r="C196" s="1">
-        <v>139.80000000000001</v>
+        <v>312.7</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.15">
@@ -9373,7 +9373,7 @@
         <v>136.1</v>
       </c>
       <c r="C197" s="1">
-        <v>121.9</v>
+        <v>258.10000000000002</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.15">
@@ -9384,7 +9384,7 @@
         <v>133.9</v>
       </c>
       <c r="C198" s="1">
-        <v>133.80000000000001</v>
+        <v>263.10000000000002</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.15">
@@ -9395,7 +9395,7 @@
         <v>141.6</v>
       </c>
       <c r="C199" s="1">
-        <v>168.5</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.15">
@@ -9406,7 +9406,7 @@
         <v>154.9</v>
       </c>
       <c r="C200" s="1">
-        <v>154</v>
+        <v>291.3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.15">
@@ -9417,7 +9417,7 @@
         <v>166.3</v>
       </c>
       <c r="C201" s="1">
-        <v>148.5</v>
+        <v>301.89999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.15">
@@ -9428,7 +9428,7 @@
         <v>174</v>
       </c>
       <c r="C202" s="1">
-        <v>138.80000000000001</v>
+        <v>241.1</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.15">
@@ -9439,7 +9439,7 @@
         <v>186</v>
       </c>
       <c r="C203" s="1">
-        <v>164.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.15">
@@ -9450,7 +9450,7 @@
         <v>235</v>
       </c>
       <c r="C204" s="1">
-        <v>182.2</v>
+        <v>344.7</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.15">
@@ -9461,7 +9461,7 @@
         <v>253.3</v>
       </c>
       <c r="C205" s="1">
-        <v>180.6</v>
+        <v>312.89999999999998</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.15">
@@ -9472,7 +9472,7 @@
         <v>240.4</v>
       </c>
       <c r="C206" s="1">
-        <v>171.4</v>
+        <v>351.1</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.15">
@@ -9483,7 +9483,7 @@
         <v>253.8</v>
       </c>
       <c r="C207" s="1">
-        <v>194.3</v>
+        <v>352.2</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.15">
@@ -9494,7 +9494,7 @@
         <v>271.89999999999998</v>
       </c>
       <c r="C208" s="1">
-        <v>211.7</v>
+        <v>350.6</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.15">
@@ -9505,7 +9505,7 @@
         <v>313.89999999999998</v>
       </c>
       <c r="C209" s="1">
-        <v>184.2</v>
+        <v>304.89999999999998</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.15">
@@ -9516,7 +9516,7 @@
         <v>322.10000000000002</v>
       </c>
       <c r="C210" s="1">
-        <v>213.2</v>
+        <v>346.9</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.15">
@@ -9527,7 +9527,7 @@
         <v>335.8</v>
       </c>
       <c r="C211" s="1">
-        <v>234.8</v>
+        <v>369.1</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.15">
@@ -9538,7 +9538,7 @@
         <v>396</v>
       </c>
       <c r="C212" s="1">
-        <v>241.6</v>
+        <v>366.5</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.15">
@@ -9549,7 +9549,7 @@
         <v>422.1</v>
       </c>
       <c r="C213" s="1">
-        <v>244.2</v>
+        <v>436.6</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.15">
@@ -9560,7 +9560,7 @@
         <v>454.7</v>
       </c>
       <c r="C214" s="1">
-        <v>250.6</v>
+        <v>436.9</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.15">
@@ -9571,7 +9571,7 @@
         <v>471.7</v>
       </c>
       <c r="C215" s="1">
-        <v>247.2</v>
+        <v>426.3</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.15">
@@ -9582,7 +9582,7 @@
         <v>567.5</v>
       </c>
       <c r="C216" s="1">
-        <v>327.2</v>
+        <v>486.5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.15">
@@ -9593,7 +9593,7 @@
         <v>567.29999999999995</v>
       </c>
       <c r="C217" s="1">
-        <v>356.5</v>
+        <v>510.6</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.15">
@@ -9604,7 +9604,7 @@
         <v>680.4</v>
       </c>
       <c r="C218" s="1">
-        <v>387.4</v>
+        <v>616.70000000000005</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.15">
@@ -9615,7 +9615,7 @@
         <v>748.5</v>
       </c>
       <c r="C219" s="1">
-        <v>402.3</v>
+        <v>541.9</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.15">
@@ -9626,7 +9626,7 @@
         <v>832.2</v>
       </c>
       <c r="C220" s="1">
-        <v>462.5</v>
+        <v>610.4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.15">
@@ -9637,7 +9637,7 @@
         <v>975</v>
       </c>
       <c r="C221" s="1">
-        <v>519</v>
+        <v>690.9</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.15">
@@ -9648,7 +9648,7 @@
         <v>1133.8</v>
       </c>
       <c r="C222" s="1">
-        <v>648</v>
+        <v>809.5</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.15">
@@ -9659,7 +9659,7 @@
         <v>1282.3</v>
       </c>
       <c r="C223" s="1">
-        <v>668.2</v>
+        <v>836.3</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.15">
@@ -9670,7 +9670,7 @@
         <v>1464.3</v>
       </c>
       <c r="C224" s="1">
-        <v>751.5</v>
+        <v>950.5</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.15">
@@ -9681,7 +9681,7 @@
         <v>1739.4</v>
       </c>
       <c r="C225" s="1">
-        <v>854.6</v>
+        <v>1011.8</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.15">
@@ -9692,7 +9692,7 @@
         <v>1974.9</v>
       </c>
       <c r="C226" s="1">
-        <v>947.7</v>
+        <v>1048.3</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.15">
@@ -9703,7 +9703,7 @@
         <v>2191.3000000000002</v>
       </c>
       <c r="C227" s="1">
-        <v>1097.2</v>
+        <v>1151.3</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.15">
@@ -9714,7 +9714,7 @@
         <v>2341.5</v>
       </c>
       <c r="C228" s="1">
-        <v>1245.5999999999999</v>
+        <v>1226.5999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.15">
@@ -9725,7 +9725,7 @@
         <v>2405.5</v>
       </c>
       <c r="C229" s="1">
-        <v>1261.8</v>
+        <v>1381.9</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.15">
@@ -9736,7 +9736,7 @@
         <v>2440.3000000000002</v>
       </c>
       <c r="C230" s="1">
-        <v>1303.0999999999999</v>
+        <v>1471.5</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.15">
@@ -9747,7 +9747,7 @@
         <v>2518.6</v>
       </c>
       <c r="C231" s="1">
-        <v>1331.9</v>
+        <v>1421.6</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.15">
@@ -9758,7 +9758,7 @@
         <v>2590.3000000000002</v>
       </c>
       <c r="C232" s="1">
-        <v>1428.4</v>
+        <v>1485.8</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.15">
@@ -9769,7 +9769,7 @@
         <v>2591.1999999999998</v>
       </c>
       <c r="C233" s="1">
-        <v>1411.4</v>
+        <v>1518.5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.15">
@@ -9780,7 +9780,7 @@
         <v>2615.6</v>
       </c>
       <c r="C234" s="1">
-        <v>1423.3</v>
+        <v>1492.6</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.15">
@@ -9791,7 +9791,7 @@
         <v>2583.9</v>
       </c>
       <c r="C235" s="1">
-        <v>1332.8</v>
+        <v>1516.1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.15">
@@ -9802,7 +9802,7 @@
         <v>2591</v>
       </c>
       <c r="C236" s="1">
-        <v>1291.5</v>
+        <v>1373.6</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.15">
@@ -9813,7 +9813,7 @@
         <v>2563.3000000000002</v>
       </c>
       <c r="C237" s="1">
-        <v>1174.5</v>
+        <v>1230.4000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.15">
@@ -9824,7 +9824,7 @@
         <v>2542.6999999999998</v>
       </c>
       <c r="C238" s="1">
-        <v>1067.4000000000001</v>
+        <v>1143.8</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.15">
@@ -9835,7 +9835,7 @@
         <v>2357.4</v>
       </c>
       <c r="C239" s="1">
-        <v>954</v>
+        <v>1135.7</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.15">
@@ -9846,7 +9846,7 @@
         <v>2323</v>
       </c>
       <c r="C240" s="1">
-        <v>840.7</v>
+        <v>989</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.15">
@@ -9857,7 +9857,7 @@
         <v>2172.4</v>
       </c>
       <c r="C241" s="1">
-        <v>801.3</v>
+        <v>916.7</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.15">
@@ -9868,7 +9868,7 @@
         <v>1953.9</v>
       </c>
       <c r="C242" s="1">
-        <v>723.4</v>
+        <v>832.9</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.15">
@@ -9879,7 +9879,7 @@
         <v>1695.7</v>
       </c>
       <c r="C243" s="1">
-        <v>652.70000000000005</v>
+        <v>734.7</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.15">
@@ -9890,7 +9890,7 @@
         <v>1464.8</v>
       </c>
       <c r="C244" s="1">
-        <v>599.4</v>
+        <v>713.4</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.15">
@@ -9901,7 +9901,7 @@
         <v>1302.7</v>
       </c>
       <c r="C245" s="1">
-        <v>521.6</v>
+        <v>679.3</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.15">
@@ -9912,7 +9912,7 @@
         <v>1139.9000000000001</v>
       </c>
       <c r="C246" s="1">
-        <v>499.1</v>
+        <v>692.2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.15">
@@ -9923,7 +9923,7 @@
         <v>1028</v>
       </c>
       <c r="C247" s="1">
-        <v>482.8</v>
+        <v>658.6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.15">
@@ -9934,7 +9934,7 @@
         <v>859.1</v>
       </c>
       <c r="C248" s="1">
-        <v>427.6</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.15">
@@ -9945,7 +9945,7 @@
         <v>736.2</v>
       </c>
       <c r="C249" s="1">
-        <v>374.4</v>
+        <v>568.9</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.15">
@@ -9956,7 +9956,7 @@
         <v>673.9</v>
       </c>
       <c r="C250" s="1">
-        <v>341.2</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.15">
@@ -9967,7 +9967,7 @@
         <v>595.29999999999995</v>
       </c>
       <c r="C251" s="1">
-        <v>320.7</v>
+        <v>465.4</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.15">
@@ -9978,7 +9978,7 @@
         <v>527</v>
       </c>
       <c r="C252" s="1">
-        <v>275.8</v>
+        <v>404.9</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.15">
@@ -9989,7 +9989,7 @@
         <v>491.4</v>
       </c>
       <c r="C253" s="1">
-        <v>260.39999999999998</v>
+        <v>432</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.15">
@@ -10000,7 +10000,7 @@
         <v>436.7</v>
       </c>
       <c r="C254" s="1">
-        <v>266.2</v>
+        <v>453.2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.15">
@@ -10011,7 +10011,7 @@
         <v>415.2</v>
       </c>
       <c r="C255" s="1">
-        <v>269.7</v>
+        <v>442.6</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.15">
@@ -10022,7 +10022,7 @@
         <v>375.6</v>
       </c>
       <c r="C256" s="1">
-        <v>240.4</v>
+        <v>358.2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.15">
@@ -10033,7 +10033,7 @@
         <v>335.8</v>
       </c>
       <c r="C257" s="1">
-        <v>200.8</v>
+        <v>358.5</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.15">
@@ -10044,7 +10044,7 @@
         <v>308.5</v>
       </c>
       <c r="C258" s="1">
-        <v>232.9</v>
+        <v>386.8</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.15">
@@ -10055,7 +10055,7 @@
         <v>277.89999999999998</v>
       </c>
       <c r="C259" s="1">
-        <v>213.5</v>
+        <v>368.5</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.15">
@@ -10066,7 +10066,7 @@
         <v>267.7</v>
       </c>
       <c r="C260" s="1">
-        <v>169.2</v>
+        <v>350.2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.15">
@@ -10077,7 +10077,7 @@
         <v>243.5</v>
       </c>
       <c r="C261" s="1">
-        <v>178.1</v>
+        <v>397.3</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.15">
@@ -10088,7 +10088,7 @@
         <v>249.3</v>
       </c>
       <c r="C262" s="1">
-        <v>169.5</v>
+        <v>332.6</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.15">
@@ -10099,7 +10099,7 @@
         <v>243</v>
       </c>
       <c r="C263" s="1">
-        <v>154.5</v>
+        <v>308.60000000000002</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.15">
@@ -10110,7 +10110,7 @@
         <v>178.3</v>
       </c>
       <c r="C264" s="1">
-        <v>122.6</v>
+        <v>270.8</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.15">
@@ -10121,7 +10121,7 @@
         <v>177.5</v>
       </c>
       <c r="C265" s="1">
-        <v>125.6</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.15">
@@ -10132,7 +10132,7 @@
         <v>210.7</v>
       </c>
       <c r="C266" s="1">
-        <v>149.80000000000001</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.15">
@@ -10143,7 +10143,7 @@
         <v>193.7</v>
       </c>
       <c r="C267" s="1">
-        <v>166.9</v>
+        <v>312.60000000000002</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.15">
@@ -10154,7 +10154,7 @@
         <v>172.2</v>
       </c>
       <c r="C268" s="1">
-        <v>134.1</v>
+        <v>357.5</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.15">
@@ -10165,7 +10165,7 @@
         <v>159.19999999999999</v>
       </c>
       <c r="C269" s="1">
-        <v>136.1</v>
+        <v>321.89999999999998</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.15">
@@ -10176,7 +10176,7 @@
         <v>146.19999999999999</v>
       </c>
       <c r="C270" s="1">
-        <v>145.4</v>
+        <v>293.89999999999998</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.15">
@@ -10187,7 +10187,7 @@
         <v>151.19999999999999</v>
       </c>
       <c r="C271" s="1">
-        <v>107.9</v>
+        <v>260.7</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.15">
@@ -10198,7 +10198,7 @@
         <v>145.69999999999999</v>
       </c>
       <c r="C272" s="1">
-        <v>140.5</v>
+        <v>280.10000000000002</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.15">
@@ -10209,7 +10209,7 @@
         <v>137.9</v>
       </c>
       <c r="C273" s="1">
-        <v>130.4</v>
+        <v>254.3</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.15">
@@ -10220,7 +10220,7 @@
         <v>173.7</v>
       </c>
       <c r="C274" s="1">
-        <v>175</v>
+        <v>317.5</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.15">
@@ -10231,7 +10231,7 @@
         <v>152.19999999999999</v>
       </c>
       <c r="C275" s="1">
-        <v>172.6</v>
+        <v>372.6</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.15">
@@ -10242,7 +10242,7 @@
         <v>149.69999999999999</v>
       </c>
       <c r="C276" s="1">
-        <v>163.30000000000001</v>
+        <v>260.5</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.15">
@@ -10253,7 +10253,7 @@
         <v>133.1</v>
       </c>
       <c r="C277" s="1">
-        <v>112.5</v>
+        <v>275.7</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.15">
@@ -10264,7 +10264,7 @@
         <v>144.69999999999999</v>
       </c>
       <c r="C278" s="1">
-        <v>111.5</v>
+        <v>296.3</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.15">
@@ -10275,7 +10275,7 @@
         <v>153.9</v>
       </c>
       <c r="C279" s="1">
-        <v>121.2</v>
+        <v>305.10000000000002</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.15">
@@ -10286,7 +10286,7 @@
         <v>148.6</v>
       </c>
       <c r="C280" s="1">
-        <v>137.6</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.15">
@@ -10297,7 +10297,7 @@
         <v>151.6</v>
       </c>
       <c r="C281" s="1">
-        <v>143.9</v>
+        <v>295.39999999999998</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.15">
@@ -10308,7 +10308,7 @@
         <v>160.80000000000001</v>
       </c>
       <c r="C282" s="1">
-        <v>153.5</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.15">
@@ -10319,7 +10319,7 @@
         <v>150.69999999999999</v>
       </c>
       <c r="C283" s="1">
-        <v>134.80000000000001</v>
+        <v>290.89999999999998</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.15">
@@ -10330,7 +10330,7 @@
         <v>133.9</v>
       </c>
       <c r="C284" s="1">
-        <v>127.1</v>
+        <v>295.10000000000002</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.15">
@@ -10341,7 +10341,7 @@
         <v>144.30000000000001</v>
       </c>
       <c r="C285" s="1">
-        <v>184</v>
+        <v>329.4</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.15">
@@ -10352,7 +10352,7 @@
         <v>150.19999999999999</v>
       </c>
       <c r="C286" s="1">
-        <v>157.5</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.15">
@@ -10363,7 +10363,7 @@
         <v>174</v>
       </c>
       <c r="C287" s="1">
-        <v>166.6</v>
+        <v>307.2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.15">
@@ -10374,7 +10374,7 @@
         <v>177.1</v>
       </c>
       <c r="C288" s="1">
-        <v>163.80000000000001</v>
+        <v>313.10000000000002</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.15">
@@ -10385,7 +10385,7 @@
         <v>156.69999999999999</v>
       </c>
       <c r="C289" s="1">
-        <v>183</v>
+        <v>319.2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.15">
@@ -10396,7 +10396,7 @@
         <v>174.4</v>
       </c>
       <c r="C290" s="1">
-        <v>194.5</v>
+        <v>309.89999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.15">
@@ -10407,7 +10407,7 @@
         <v>175.3</v>
       </c>
       <c r="C291" s="1">
-        <v>153.19999999999999</v>
+        <v>309</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.15">
@@ -10418,7 +10418,7 @@
         <v>165.1</v>
       </c>
       <c r="C292" s="1">
-        <v>142</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.15">
@@ -10429,7 +10429,7 @@
         <v>149.80000000000001</v>
       </c>
       <c r="C293" s="1">
-        <v>159.69999999999999</v>
+        <v>316.8</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.15">
@@ -10440,7 +10440,7 @@
         <v>170.9</v>
       </c>
       <c r="C294" s="1">
-        <v>152.30000000000001</v>
+        <v>301.7</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.15">
@@ -10451,7 +10451,7 @@
         <v>181.9</v>
       </c>
       <c r="C295" s="1">
-        <v>200.4</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.15">
@@ -10462,7 +10462,7 @@
         <v>150.5</v>
       </c>
       <c r="C296" s="1">
-        <v>154.19999999999999</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.15">
@@ -10473,7 +10473,7 @@
         <v>155.69999999999999</v>
       </c>
       <c r="C297" s="1">
-        <v>170.2</v>
+        <v>259.89999999999998</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.15">
@@ -10484,7 +10484,7 @@
         <v>204.2</v>
       </c>
       <c r="C298" s="1">
-        <v>210.4</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.15">
@@ -10495,7 +10495,7 @@
         <v>211.7</v>
       </c>
       <c r="C299" s="1">
-        <v>179.4</v>
+        <v>312.10000000000002</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.15">
@@ -10506,7 +10506,7 @@
         <v>185.2</v>
       </c>
       <c r="C300" s="1">
-        <v>192.4</v>
+        <v>278.7</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.15">
@@ -10517,7 +10517,7 @@
         <v>182.7</v>
       </c>
       <c r="C301" s="1">
-        <v>183.1</v>
+        <v>345.7</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.15">
@@ -10528,7 +10528,7 @@
         <v>189.3</v>
       </c>
       <c r="C302" s="1">
-        <v>215</v>
+        <v>322.60000000000002</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.15">
@@ -10539,7 +10539,7 @@
         <v>190.9</v>
       </c>
       <c r="C303" s="1">
-        <v>219</v>
+        <v>355.5</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.15">
@@ -10550,7 +10550,7 @@
         <v>234</v>
       </c>
       <c r="C304" s="1">
-        <v>219.3</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.15">
@@ -10561,7 +10561,7 @@
         <v>228.7</v>
       </c>
       <c r="C305" s="1">
-        <v>231.7</v>
+        <v>362.4</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.15">
@@ -10572,7 +10572,7 @@
         <v>233.3</v>
       </c>
       <c r="C306" s="1">
-        <v>252</v>
+        <v>358.3</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.15">
@@ -10583,7 +10583,7 @@
         <v>246.8</v>
       </c>
       <c r="C307" s="1">
-        <v>205.1</v>
+        <v>339.1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.15">
@@ -10594,7 +10594,7 @@
         <v>233.4</v>
       </c>
       <c r="C308" s="1">
-        <v>227.6</v>
+        <v>389.9</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.15">
@@ -10605,7 +10605,7 @@
         <v>272</v>
       </c>
       <c r="C309" s="1">
-        <v>275.8</v>
+        <v>405.3</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.15">
@@ -10616,7 +10616,7 @@
         <v>281.60000000000002</v>
       </c>
       <c r="C310" s="1">
-        <v>287.10000000000002</v>
+        <v>372.1</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.15">
@@ -10627,7 +10627,7 @@
         <v>260</v>
       </c>
       <c r="C311" s="1">
-        <v>260.5</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.15">
@@ -10638,7 +10638,7 @@
         <v>272.7</v>
       </c>
       <c r="C312" s="1">
-        <v>263.3</v>
+        <v>433.1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.15">
@@ -10649,7 +10649,7 @@
         <v>252.5</v>
       </c>
       <c r="C313" s="1">
-        <v>272</v>
+        <v>442.9</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.15">
@@ -10660,7 +10660,7 @@
         <v>283.5</v>
       </c>
       <c r="C314" s="1">
-        <v>321.89999999999998</v>
+        <v>447</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.15">
@@ -10671,7 +10671,7 @@
         <v>331.5</v>
       </c>
       <c r="C315" s="1">
-        <v>352.7</v>
+        <v>444.9</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.15">
@@ -10682,7 +10682,7 @@
         <v>330.1</v>
       </c>
       <c r="C316" s="1">
-        <v>376.2</v>
+        <v>432.4</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.15">
@@ -10693,7 +10693,7 @@
         <v>339.6</v>
       </c>
       <c r="C317" s="1">
-        <v>343</v>
+        <v>438.8</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.15">
@@ -10704,7 +10704,7 @@
         <v>322.5</v>
       </c>
       <c r="C318" s="1">
-        <v>342.2</v>
+        <v>412.2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.15">
@@ -10715,7 +10715,7 @@
         <v>361.6</v>
       </c>
       <c r="C319" s="1">
-        <v>380.4</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.15">
@@ -10726,7 +10726,7 @@
         <v>401.4</v>
       </c>
       <c r="C320" s="1">
-        <v>407.2</v>
+        <v>525.29999999999995</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.15">
@@ -10737,7 +10737,7 @@
         <v>411.7</v>
       </c>
       <c r="C321" s="1">
-        <v>404.9</v>
+        <v>496.1</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.15">
@@ -10748,7 +10748,7 @@
         <v>435.2</v>
       </c>
       <c r="C322" s="1">
-        <v>412.7</v>
+        <v>488.6</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.15">
@@ -10759,7 +10759,7 @@
         <v>473.9</v>
       </c>
       <c r="C323" s="1">
-        <v>451.4</v>
+        <v>517.5</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.15">
@@ -10770,7 +10770,7 @@
         <v>508.5</v>
       </c>
       <c r="C324" s="1">
-        <v>502.8</v>
+        <v>556.6</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.15">
@@ -10781,7 +10781,7 @@
         <v>516.6</v>
       </c>
       <c r="C325" s="1">
-        <v>497.6</v>
+        <v>628.29999999999995</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.15">
@@ -10792,7 +10792,7 @@
         <v>446.5</v>
       </c>
       <c r="C326" s="1">
-        <v>493.7</v>
+        <v>620.1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.15">
@@ -10803,7 +10803,7 @@
         <v>496.7</v>
       </c>
       <c r="C327" s="1">
-        <v>535.70000000000005</v>
+        <v>631.9</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.15">
@@ -10814,7 +10814,7 @@
         <v>481.8</v>
       </c>
       <c r="C328" s="1">
-        <v>509.5</v>
+        <v>636.70000000000005</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.15">
@@ -10825,7 +10825,7 @@
         <v>442.6</v>
       </c>
       <c r="C329" s="1">
-        <v>460.6</v>
+        <v>599.5</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.15">
@@ -10836,7 +10836,7 @@
         <v>453.5</v>
       </c>
       <c r="C330" s="1">
-        <v>459.9</v>
+        <v>566.9</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.15">
@@ -10847,7 +10847,7 @@
         <v>494.4</v>
       </c>
       <c r="C331" s="1">
-        <v>435.3</v>
+        <v>599</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.15">
@@ -10858,7 +10858,7 @@
         <v>454.5</v>
       </c>
       <c r="C332" s="1">
-        <v>429.6</v>
+        <v>509.8</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.15">
@@ -10869,7 +10869,7 @@
         <v>422.7</v>
       </c>
       <c r="C333" s="1">
-        <v>359.1</v>
+        <v>467.4</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.15">
@@ -10880,7 +10880,7 @@
         <v>419.1</v>
       </c>
       <c r="C334" s="1">
-        <v>320.8</v>
+        <v>427.1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.15">
@@ -10891,7 +10891,7 @@
         <v>411.3</v>
       </c>
       <c r="C335" s="1">
-        <v>323.7</v>
+        <v>417.7</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.15">
@@ -10902,7 +10902,7 @@
         <v>387.1</v>
       </c>
       <c r="C336" s="1">
-        <v>295</v>
+        <v>436.6</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.15">
@@ -10913,7 +10913,7 @@
         <v>339.4</v>
       </c>
       <c r="C337" s="1">
-        <v>291.2</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.15">
@@ -10924,7 +10924,7 @@
         <v>356.1</v>
       </c>
       <c r="C338" s="1">
-        <v>271.39999999999998</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.15">
@@ -10935,7 +10935,7 @@
         <v>294.2</v>
       </c>
       <c r="C339" s="1">
-        <v>254</v>
+        <v>449.7</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.15">
@@ -10946,7 +10946,7 @@
         <v>304.5</v>
       </c>
       <c r="C340" s="1">
-        <v>273.39999999999998</v>
+        <v>410.1</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.15">
@@ -10957,7 +10957,7 @@
         <v>320.2</v>
       </c>
       <c r="C341" s="1">
-        <v>254.7</v>
+        <v>409</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.15">
@@ -10968,7 +10968,7 @@
         <v>288.8</v>
       </c>
       <c r="C342" s="1">
-        <v>268</v>
+        <v>373.3</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.15">
@@ -10979,7 +10979,7 @@
         <v>280.7</v>
       </c>
       <c r="C343" s="1">
-        <v>286.10000000000002</v>
+        <v>460.6</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.15">
@@ -10990,7 +10990,7 @@
         <v>293.3</v>
       </c>
       <c r="C344" s="1">
-        <v>311.89999999999998</v>
+        <v>428.9</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.15">
@@ -11001,7 +11001,7 @@
         <v>256.8</v>
       </c>
       <c r="C345" s="1">
-        <v>275.89999999999998</v>
+        <v>432</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.15">
@@ -11012,7 +11012,7 @@
         <v>234.5</v>
       </c>
       <c r="C346" s="1">
-        <v>247.7</v>
+        <v>409.9</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.15">
@@ -11023,7 +11023,7 @@
         <v>277.7</v>
       </c>
       <c r="C347" s="1">
-        <v>247</v>
+        <v>409.1</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.15">
@@ -11034,7 +11034,7 @@
         <v>275.3</v>
       </c>
       <c r="C348" s="1">
-        <v>251</v>
+        <v>384.5</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.15">
@@ -11045,7 +11045,7 @@
         <v>317.60000000000002</v>
       </c>
       <c r="C349" s="1">
-        <v>259.3</v>
+        <v>358.6</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.15">
@@ -11056,7 +11056,7 @@
         <v>289.39999999999998</v>
       </c>
       <c r="C350" s="1">
-        <v>239</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.15">
@@ -11067,7 +11067,7 @@
         <v>305.5</v>
       </c>
       <c r="C351" s="1">
-        <v>297.89999999999998</v>
+        <v>390.9</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.15">
@@ -11078,7 +11078,7 @@
         <v>264.10000000000002</v>
       </c>
       <c r="C352" s="1">
-        <v>337.4</v>
+        <v>377.7</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.15">
@@ -11089,7 +11089,7 @@
         <v>309.7</v>
       </c>
       <c r="C353" s="1">
-        <v>344.7</v>
+        <v>364</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.15">
@@ -11100,7 +11100,7 @@
         <v>293.5</v>
       </c>
       <c r="C354" s="1">
-        <v>327.9</v>
+        <v>362.2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.15">
@@ -11111,7 +11111,7 @@
         <v>295</v>
       </c>
       <c r="C355" s="1">
-        <v>270.39999999999998</v>
+        <v>397.2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.15">
@@ -11122,7 +11122,7 @@
         <v>334.7</v>
       </c>
       <c r="C356" s="1">
-        <v>263.5</v>
+        <v>403.7</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.15">
@@ -11133,7 +11133,7 @@
         <v>312.39999999999998</v>
       </c>
       <c r="C357" s="1">
-        <v>274.7</v>
+        <v>433.4</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.15">
@@ -11144,7 +11144,7 @@
         <v>351.4</v>
       </c>
       <c r="C358" s="1">
-        <v>321.3</v>
+        <v>506.2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.15">
@@ -11155,7 +11155,7 @@
         <v>388.4</v>
       </c>
       <c r="C359" s="1">
-        <v>339.5</v>
+        <v>483.7</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.15">
@@ -11166,7 +11166,7 @@
         <v>371.9</v>
       </c>
       <c r="C360" s="1">
-        <v>350.2</v>
+        <v>439.2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.15">
@@ -11177,7 +11177,7 @@
         <v>370.8</v>
       </c>
       <c r="C361" s="1">
-        <v>327.39999999999998</v>
+        <v>500.1</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.15">
@@ -11188,7 +11188,7 @@
         <v>312.10000000000002</v>
       </c>
       <c r="C362" s="1">
-        <v>324.60000000000002</v>
+        <v>482.7</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.15">
@@ -11199,7 +11199,7 @@
         <v>350.7</v>
       </c>
       <c r="C363" s="1">
-        <v>343.7</v>
+        <v>534.9</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.15">
@@ -11210,7 +11210,7 @@
         <v>365.6</v>
       </c>
       <c r="C364" s="1">
-        <v>370.8</v>
+        <v>607.70000000000005</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.15">
@@ -11221,7 +11221,7 @@
         <v>358.3</v>
       </c>
       <c r="C365" s="1">
-        <v>388</v>
+        <v>537.79999999999995</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.15">
@@ -11232,7 +11232,7 @@
         <v>414</v>
       </c>
       <c r="C366" s="1">
-        <v>413.8</v>
+        <v>549.79999999999995</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.15">
@@ -11243,7 +11243,7 @@
         <v>418.4</v>
       </c>
       <c r="C367" s="1">
-        <v>418.6</v>
+        <v>509.1</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.15">
@@ -11254,7 +11254,7 @@
         <v>456.9</v>
       </c>
       <c r="C368" s="1">
-        <v>408.5</v>
+        <v>543.70000000000005</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.15">
@@ -11265,7 +11265,7 @@
         <v>413.4</v>
       </c>
       <c r="C369" s="1">
-        <v>358.9</v>
+        <v>592.4</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.15">
@@ -11276,7 +11276,7 @@
         <v>415.6</v>
       </c>
       <c r="C370" s="1">
-        <v>403</v>
+        <v>556.4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.15">
@@ -11287,7 +11287,7 @@
         <v>425</v>
       </c>
       <c r="C371" s="1">
-        <v>431.4</v>
+        <v>619.6</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.15">
@@ -11298,7 +11298,7 @@
         <v>471.9</v>
       </c>
       <c r="C372" s="1">
-        <v>433.3</v>
+        <v>593.4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.15">
@@ -11309,7 +11309,7 @@
         <v>468.3</v>
       </c>
       <c r="C373" s="1">
-        <v>430</v>
+        <v>553.79999999999995</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.15">
@@ -11320,7 +11320,7 @@
         <v>418.8</v>
       </c>
       <c r="C374" s="1">
-        <v>372.7</v>
+        <v>511.5</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.15">
@@ -11331,7 +11331,7 @@
         <v>351.7</v>
       </c>
       <c r="C375" s="1">
-        <v>350.5</v>
+        <v>467.4</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.15">
@@ -11342,7 +11342,7 @@
         <v>361.4</v>
       </c>
       <c r="C376" s="1">
-        <v>350.6</v>
+        <v>427.3</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.15">
@@ -11353,7 +11353,7 @@
         <v>320.89999999999998</v>
       </c>
       <c r="C377" s="1">
-        <v>322.60000000000002</v>
+        <v>446.4</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.15">
@@ -11364,7 +11364,7 @@
         <v>327.39999999999998</v>
       </c>
       <c r="C378" s="1">
-        <v>285.5</v>
+        <v>462.6</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.15">
@@ -11375,7 +11375,7 @@
         <v>308.60000000000002</v>
       </c>
       <c r="C379" s="1">
-        <v>262.5</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.15">
@@ -11386,7 +11386,7 @@
         <v>284.2</v>
       </c>
       <c r="C380" s="1">
-        <v>270.2</v>
+        <v>342.2</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.15">
@@ -11397,7 +11397,7 @@
         <v>312.60000000000002</v>
       </c>
       <c r="C381" s="1">
-        <v>264.3</v>
+        <v>338.6</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.15">
@@ -11408,7 +11408,7 @@
         <v>361.9</v>
       </c>
       <c r="C382" s="1">
-        <v>272.89999999999998</v>
+        <v>392.4</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.15">
@@ -11419,7 +11419,7 @@
         <v>314.7</v>
       </c>
       <c r="C383" s="1">
-        <v>246.9</v>
+        <v>331.2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.15">
@@ -11430,7 +11430,7 @@
         <v>336.8</v>
       </c>
       <c r="C384" s="1">
-        <v>302.2</v>
+        <v>405.9</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.15">
@@ -11441,7 +11441,7 @@
         <v>294.89999999999998</v>
       </c>
       <c r="C385" s="1">
-        <v>280.89999999999998</v>
+        <v>365.2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.15">
@@ -11452,7 +11452,7 @@
         <v>310.2</v>
       </c>
       <c r="C386" s="1">
-        <v>316.39999999999998</v>
+        <v>354.9</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.15">
@@ -11463,7 +11463,7 @@
         <v>289.8</v>
       </c>
       <c r="C387" s="1">
-        <v>323.3</v>
+        <v>376.5</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.15">
@@ -11474,7 +11474,7 @@
         <v>275.89999999999998</v>
       </c>
       <c r="C388" s="1">
-        <v>300.60000000000002</v>
+        <v>351.9</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.15">
@@ -11485,7 +11485,7 @@
         <v>287.2</v>
       </c>
       <c r="C389" s="1">
-        <v>312.8</v>
+        <v>401.5</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.15">
@@ -11496,7 +11496,7 @@
         <v>291.7</v>
       </c>
       <c r="C390" s="1">
-        <v>332.8</v>
+        <v>397.7</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.15">
@@ -11507,7 +11507,7 @@
         <v>326.89999999999998</v>
       </c>
       <c r="C391" s="1">
-        <v>351.3</v>
+        <v>429.1</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.15">
@@ -11518,7 +11518,7 @@
         <v>344.3</v>
       </c>
       <c r="C392" s="1">
-        <v>333.3</v>
+        <v>387.2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.15">
@@ -11529,7 +11529,7 @@
         <v>320.3</v>
       </c>
       <c r="C393" s="1">
-        <v>343.4</v>
+        <v>389.6</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.15">
@@ -11540,7 +11540,7 @@
         <v>307.7</v>
       </c>
       <c r="C394" s="1">
-        <v>383</v>
+        <v>379.6</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.15">
@@ -11551,7 +11551,7 @@
         <v>358.5</v>
       </c>
       <c r="C395" s="1">
-        <v>384.2</v>
+        <v>447.4</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.15">
@@ -11562,7 +11562,7 @@
         <v>348.6</v>
       </c>
       <c r="C396" s="1">
-        <v>390.1</v>
+        <v>405.6</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.15">
@@ -11573,7 +11573,7 @@
         <v>391.2</v>
       </c>
       <c r="C397" s="1">
-        <v>402.6</v>
+        <v>453.7</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.15">
@@ -11584,7 +11584,7 @@
         <v>441</v>
       </c>
       <c r="C398" s="1">
-        <v>360.2</v>
+        <v>426.9</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.15">
@@ -11595,7 +11595,7 @@
         <v>496.7</v>
       </c>
       <c r="C399" s="1">
-        <v>391.6</v>
+        <v>476.7</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.15">
@@ -11606,7 +11606,7 @@
         <v>460.8</v>
       </c>
       <c r="C400" s="1">
-        <v>380.2</v>
+        <v>447</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.15">
@@ -11617,7 +11617,7 @@
         <v>473</v>
       </c>
       <c r="C401" s="1">
-        <v>437</v>
+        <v>539.79999999999995</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.15">
@@ -11628,7 +11628,7 @@
         <v>480.6</v>
       </c>
       <c r="C402" s="1">
-        <v>461.6</v>
+        <v>520.6</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.15">
@@ -11639,7 +11639,7 @@
         <v>469.8</v>
       </c>
       <c r="C403" s="1">
-        <v>461.8</v>
+        <v>501.2</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.15">
@@ -11650,7 +11650,7 @@
         <v>541.79999999999995</v>
       </c>
       <c r="C404" s="1">
-        <v>464.5</v>
+        <v>555.1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.15">
@@ -11661,7 +11661,7 @@
         <v>499.1</v>
       </c>
       <c r="C405" s="1">
-        <v>363.3</v>
+        <v>434.2</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.15">
@@ -11672,7 +11672,7 @@
         <v>528.20000000000005</v>
       </c>
       <c r="C406" s="1">
-        <v>355.2</v>
+        <v>518.4</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.15">
@@ -11683,7 +11683,7 @@
         <v>479.6</v>
       </c>
       <c r="C407" s="1">
-        <v>360.7</v>
+        <v>551.70000000000005</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.15">
@@ -11694,7 +11694,7 @@
         <v>409.7</v>
       </c>
       <c r="C408" s="1">
-        <v>336.5</v>
+        <v>448.6</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.15">
@@ -11705,7 +11705,7 @@
         <v>379.2</v>
       </c>
       <c r="C409" s="1">
-        <v>329.7</v>
+        <v>508.6</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.15">
@@ -11716,7 +11716,7 @@
         <v>360.9</v>
       </c>
       <c r="C410" s="1">
-        <v>301.10000000000002</v>
+        <v>460.9</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.15">
@@ -11727,7 +11727,7 @@
         <v>325.10000000000002</v>
       </c>
       <c r="C411" s="1">
-        <v>260.60000000000002</v>
+        <v>443.3</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.15">
@@ -11738,7 +11738,7 @@
         <v>299.3</v>
       </c>
       <c r="C412" s="1">
-        <v>245.6</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.15">
@@ -11749,7 +11749,7 @@
         <v>258.8</v>
       </c>
       <c r="C413" s="1">
-        <v>202.4</v>
+        <v>376.1</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.15">
@@ -11760,7 +11760,7 @@
         <v>253.1</v>
       </c>
       <c r="C414" s="1">
-        <v>240.2</v>
+        <v>377.2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.15">
@@ -11771,7 +11771,7 @@
         <v>267.5</v>
       </c>
       <c r="C415" s="1">
-        <v>238</v>
+        <v>428.2</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.15">
@@ -11782,7 +11782,7 @@
         <v>268</v>
       </c>
       <c r="C416" s="1">
-        <v>243.7</v>
+        <v>392.4</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.15">
@@ -11793,7 +11793,7 @@
         <v>266.39999999999998</v>
       </c>
       <c r="C417" s="1">
-        <v>233.5</v>
+        <v>384.3</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.15">
@@ -11804,7 +11804,7 @@
         <v>272.7</v>
       </c>
       <c r="C418" s="1">
-        <v>235.9</v>
+        <v>419.9</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.15">
@@ -11815,7 +11815,7 @@
         <v>263.60000000000002</v>
       </c>
       <c r="C419" s="1">
-        <v>213.3</v>
+        <v>421.6</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.15">
@@ -11826,7 +11826,7 @@
         <v>304.5</v>
       </c>
       <c r="C420" s="1">
-        <v>225.4</v>
+        <v>399.5</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.15">
@@ -11837,7 +11837,7 @@
         <v>318.3</v>
       </c>
       <c r="C421" s="1">
-        <v>251.5</v>
+        <v>489</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.15">
@@ -11848,7 +11848,7 @@
         <v>286.60000000000002</v>
       </c>
       <c r="C422" s="1">
-        <v>243.4</v>
+        <v>440.5</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.15">
@@ -11859,7 +11859,7 @@
         <v>306.5</v>
       </c>
       <c r="C423" s="1">
-        <v>241.3</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.15">
@@ -11870,7 +11870,7 @@
         <v>333.9</v>
       </c>
       <c r="C424" s="1">
-        <v>274</v>
+        <v>525.79999999999995</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.15">
@@ -11881,7 +11881,7 @@
         <v>314.89999999999998</v>
       </c>
       <c r="C425" s="1">
-        <v>259.89999999999998</v>
+        <v>486</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.15">
@@ -11892,7 +11892,7 @@
         <v>332.9</v>
       </c>
       <c r="C426" s="1">
-        <v>294.89999999999998</v>
+        <v>475.9</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.15">
@@ -11903,7 +11903,7 @@
         <v>325.2</v>
       </c>
       <c r="C427" s="1">
-        <v>313.7</v>
+        <v>520.6</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.15">
@@ -11914,7 +11914,7 @@
         <v>318.3</v>
       </c>
       <c r="C428" s="1">
-        <v>260.60000000000002</v>
+        <v>530.1</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.15">
@@ -11925,7 +11925,7 @@
         <v>326.60000000000002</v>
       </c>
       <c r="C429" s="1">
-        <v>227.8</v>
+        <v>405.5</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.15">
@@ -11936,7 +11936,7 @@
         <v>354.3</v>
       </c>
       <c r="C430" s="1">
-        <v>289.10000000000002</v>
+        <v>497.9</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.15">
@@ -11947,7 +11947,7 @@
         <v>301</v>
       </c>
       <c r="C431" s="1">
-        <v>221.4</v>
+        <v>409.6</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.15">
@@ -11958,7 +11958,7 @@
         <v>364.6</v>
       </c>
       <c r="C432" s="1">
-        <v>229.1</v>
+        <v>507.4</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.15">
@@ -11969,7 +11969,7 @@
         <v>304.39999999999998</v>
       </c>
       <c r="C433" s="1">
-        <v>226.7</v>
+        <v>442.2</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.15">
@@ -11980,7 +11980,7 @@
         <v>232.2</v>
       </c>
       <c r="C434" s="1">
-        <v>199.2</v>
+        <v>365.6</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.15">
@@ -11991,7 +11991,7 @@
         <v>280.60000000000002</v>
       </c>
       <c r="C435" s="1">
-        <v>211</v>
+        <v>338.9</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.15">
@@ -12002,7 +12002,7 @@
         <v>237.2</v>
       </c>
       <c r="C436" s="1">
-        <v>198.4</v>
+        <v>338.6</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.15">
@@ -12013,7 +12013,7 @@
         <v>239.6</v>
       </c>
       <c r="C437" s="1">
-        <v>212.8</v>
+        <v>288.7</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.15">
@@ -12024,7 +12024,7 @@
         <v>232.7</v>
       </c>
       <c r="C438" s="1">
-        <v>189.9</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.15">
@@ -12035,7 +12035,7 @@
         <v>238.7</v>
       </c>
       <c r="C439" s="1">
-        <v>164.8</v>
+        <v>303.39999999999998</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.15">
@@ -12046,7 +12046,7 @@
         <v>238.5</v>
       </c>
       <c r="C440" s="1">
-        <v>157.19999999999999</v>
+        <v>304.39999999999998</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.15">
@@ -12057,7 +12057,7 @@
         <v>234</v>
       </c>
       <c r="C441" s="1">
-        <v>143.6</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.15">
@@ -12068,7 +12068,7 @@
         <v>267.8</v>
       </c>
       <c r="C442" s="1">
-        <v>185.8</v>
+        <v>360.4</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.15">
@@ -12079,7 +12079,7 @@
         <v>239.8</v>
       </c>
       <c r="C443" s="1">
-        <v>164.8</v>
+        <v>356.6</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.15">
@@ -12090,7 +12090,7 @@
         <v>296.7</v>
       </c>
       <c r="C444" s="1">
-        <v>206.6</v>
+        <v>400.7</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.15">
@@ -12101,7 +12101,7 @@
         <v>293.39999999999998</v>
       </c>
       <c r="C445" s="1">
-        <v>213.6</v>
+        <v>373.3</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.15">
@@ -12112,7 +12112,7 @@
         <v>340.3</v>
       </c>
       <c r="C446" s="1">
-        <v>253.6</v>
+        <v>384.1</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.15">
@@ -12123,7 +12123,7 @@
         <v>336.8</v>
       </c>
       <c r="C447" s="1">
-        <v>269.39999999999998</v>
+        <v>400</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.15">
@@ -12134,7 +12134,7 @@
         <v>294.89999999999998</v>
       </c>
       <c r="C448" s="1">
-        <v>263.10000000000002</v>
+        <v>379.4</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.15">
@@ -12145,7 +12145,7 @@
         <v>299.39999999999998</v>
       </c>
       <c r="C449" s="1">
-        <v>217.7</v>
+        <v>413.8</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.15">
@@ -12156,7 +12156,7 @@
         <v>337</v>
       </c>
       <c r="C450" s="1">
-        <v>200.7</v>
+        <v>381.9</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.15">
@@ -12167,7 +12167,7 @@
         <v>354.6</v>
       </c>
       <c r="C451" s="1">
-        <v>192</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.15">
@@ -12178,7 +12178,7 @@
         <v>336.5</v>
       </c>
       <c r="C452" s="1">
-        <v>178.6</v>
+        <v>345.3</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.15">
@@ -12189,7 +12189,7 @@
         <v>291.3</v>
       </c>
       <c r="C453" s="1">
-        <v>181.3</v>
+        <v>365</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.15">
@@ -12200,7 +12200,7 @@
         <v>267.39999999999998</v>
       </c>
       <c r="C454" s="1">
-        <v>207.8</v>
+        <v>388.5</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.15">
@@ -12211,7 +12211,7 @@
         <v>219.4</v>
       </c>
       <c r="C455" s="1">
-        <v>164.3</v>
+        <v>343.3</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.15">
@@ -12222,7 +12222,7 @@
         <v>216.8</v>
       </c>
       <c r="C456" s="1">
-        <v>160.1</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.15">
@@ -12233,7 +12233,7 @@
         <v>211.5</v>
       </c>
       <c r="C457" s="1">
-        <v>164.1</v>
+        <v>348.1</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.15">
@@ -12244,7 +12244,7 @@
         <v>192.2</v>
       </c>
       <c r="C458" s="1">
-        <v>148.30000000000001</v>
+        <v>356.9</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.15">
@@ -12255,7 +12255,7 @@
         <v>156.4</v>
       </c>
       <c r="C459" s="1">
-        <v>116.2</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.15">
@@ -12266,7 +12266,7 @@
         <v>192.1</v>
       </c>
       <c r="C460" s="1">
-        <v>151.5</v>
+        <v>307</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.15">
@@ -12277,7 +12277,7 @@
         <v>175.3</v>
       </c>
       <c r="C461" s="1">
-        <v>164.2</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.15">
@@ -12288,7 +12288,7 @@
         <v>192.5</v>
       </c>
       <c r="C462" s="1">
-        <v>165.1</v>
+        <v>342</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.15">
@@ -12299,7 +12299,7 @@
         <v>179.1</v>
       </c>
       <c r="C463" s="1">
-        <v>137.1</v>
+        <v>338.3</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.15">
@@ -12310,7 +12310,7 @@
         <v>203.1</v>
       </c>
       <c r="C464" s="1">
-        <v>135.9</v>
+        <v>344.6</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.15">
@@ -12321,7 +12321,7 @@
         <v>237.2</v>
       </c>
       <c r="C465" s="1">
-        <v>167.3</v>
+        <v>365.5</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.15">
@@ -12332,7 +12332,7 @@
         <v>223.5</v>
       </c>
       <c r="C466" s="1">
-        <v>195.6</v>
+        <v>372.5</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.15">
@@ -12343,7 +12343,7 @@
         <v>211.8</v>
       </c>
       <c r="C467" s="1">
-        <v>156.1</v>
+        <v>392.9</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.15">
@@ -12354,7 +12354,7 @@
         <v>235.4</v>
       </c>
       <c r="C468" s="1">
-        <v>120.7</v>
+        <v>407.3</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.15">
@@ -12365,7 +12365,7 @@
         <v>196.3</v>
       </c>
       <c r="C469" s="1">
-        <v>140.9</v>
+        <v>370</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.15">
@@ -12376,7 +12376,7 @@
         <v>205.1</v>
       </c>
       <c r="C470" s="1">
-        <v>142.6</v>
+        <v>366.7</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.15">
@@ -12387,7 +12387,7 @@
         <v>200.7</v>
       </c>
       <c r="C471" s="1">
-        <v>128.9</v>
+        <v>331.3</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.15">
@@ -12398,7 +12398,7 @@
         <v>164.4</v>
       </c>
       <c r="C472" s="1">
-        <v>106</v>
+        <v>321.60000000000002</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.15">
@@ -12409,7 +12409,7 @@
         <v>156.19999999999999</v>
       </c>
       <c r="C473" s="1">
-        <v>112.4</v>
+        <v>312.89999999999998</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.15">
@@ -12420,7 +12420,7 @@
         <v>149.6</v>
       </c>
       <c r="C474" s="1">
-        <v>117.1</v>
+        <v>336.9</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.15">
@@ -12431,7 +12431,7 @@
         <v>131.5</v>
       </c>
       <c r="C475" s="1">
-        <v>97.4</v>
+        <v>318.89999999999998</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.15">
@@ -12442,7 +12442,7 @@
         <v>130.80000000000001</v>
       </c>
       <c r="C476" s="1">
-        <v>106.3</v>
+        <v>345.4</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.15">
@@ -12453,7 +12453,7 @@
         <v>167.5</v>
       </c>
       <c r="C477" s="1">
-        <v>133.9</v>
+        <v>373.3</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.15">
@@ -12464,7 +12464,7 @@
         <v>172</v>
       </c>
       <c r="C478" s="1">
-        <v>154.80000000000001</v>
+        <v>354.8</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.15">
@@ -12475,7 +12475,7 @@
         <v>152.30000000000001</v>
       </c>
       <c r="C479" s="1">
-        <v>159.69999999999999</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.15">
@@ -12486,7 +12486,7 @@
         <v>132.6</v>
       </c>
       <c r="C480" s="1">
-        <v>116</v>
+        <v>262.8</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.15">
@@ -12497,7 +12497,7 @@
         <v>187.7</v>
       </c>
       <c r="C481" s="1">
-        <v>139.30000000000001</v>
+        <v>316.10000000000002</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.15">
